--- a/docs/infocongresistas.xlsx
+++ b/docs/infocongresistas.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseincio/Documents/muro-verguenza-peru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BC221-B4A5-3048-9E3C-76595F841366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D630E277-4A88-5242-A2AC-6840DC57DBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29780" yWindow="1740" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
+    <workbookView xWindow="300" yWindow="800" windowWidth="25040" windowHeight="13880" xr2:uid="{D13D0022-5F2B-AB40-9C6A-61466BD4ECD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$131</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="303">
   <si>
     <t>EDUARDO GEOVANNI ACATE CORONEL</t>
   </si>
@@ -940,6 +944,9 @@
   </si>
   <si>
     <t>Sentencia2</t>
+  </si>
+  <si>
+    <t>PROTESTA1</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3970C-88B8-E242-9347-053CDA7858CB}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H131"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1333,7 @@
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1351,8 +1358,11 @@
       <c r="H1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1923,8 +1933,11 @@
       <c r="H23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2066,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2106,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2158,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2183,8 +2199,11 @@
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2210,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2235,8 +2254,11 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2288,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2340,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2366,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2391,8 +2413,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2418,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2470,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2496,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2548,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2574,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2600,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2626,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2652,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2678,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2756,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2808,7 +2833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2834,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2860,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2886,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2912,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2938,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2963,8 +2988,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2990,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3016,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3042,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3068,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3094,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3172,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3198,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3224,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3250,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3276,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3301,8 +3329,11 @@
       <c r="H76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3328,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3354,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3380,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3406,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3458,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3484,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3510,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3536,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3562,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3588,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3614,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3640,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3666,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3692,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3718,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3743,8 +3774,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3770,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3796,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3822,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3848,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3874,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3900,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3926,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3951,8 +3985,11 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3978,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4004,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4030,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4056,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -4082,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -4108,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4134,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -4160,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4186,7 +4223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4212,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4238,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4263,8 +4300,11 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4290,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4316,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4342,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4368,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4420,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4446,7 +4486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4472,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4498,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4524,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4550,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4576,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4602,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4628,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4865,4 +4905,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3D05CD-8E6C-C542-AC71-2E25013345F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>